--- a/server/sheet.xlsx
+++ b/server/sheet.xlsx
@@ -221,35 +221,19 @@
     <t xml:space="preserve">Production</t>
   </si>
   <si>
-    <t xml:space="preserve">Oven Overloaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oven did not work </t>
-  </si>
-  <si>
-    <t xml:space="preserve">undefined undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helllo sirji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allah hu akbar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yoyoyoyooy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allah hu akbar
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello brotherrrr</t>
+    <t xml:space="preserve">Oven Overloaded and stopped working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBT not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XYZ</t>
   </si>
 </sst>
 </file>
@@ -2122,13 +2106,13 @@
     </row>
     <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s" s="7">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s" s="9">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2141,13 +2125,13 @@
     </row>
     <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -2166,7 +2150,7 @@
         <v>63</v>
       </c>
       <c r="D8" t="s" s="12">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -2178,15 +2162,9 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s" s="12">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s" s="12">
-        <v>73</v>
-      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>

--- a/server/sheet.xlsx
+++ b/server/sheet.xlsx
@@ -234,6 +234,33 @@
   </si>
   <si>
     <t xml:space="preserve">XYZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBT Overloaded </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDI Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDI stopped working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oven overloaded 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLA VLA</t>
   </si>
 </sst>
 </file>
@@ -2106,13 +2133,13 @@
     </row>
     <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s" s="7">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s" s="8">
         <v>63</v>
       </c>
       <c r="D6" t="s" s="9">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2125,13 +2152,13 @@
     </row>
     <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s" s="11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
